--- a/LeetCodePractice/Docs/ProgressReport.xlsx
+++ b/LeetCodePractice/Docs/ProgressReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\LeetCodePractice\LeetCodePractice\src\Top100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\LeetCodePractice\LeetCodePractice\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Jewels and Stones</t>
   </si>
@@ -42,6 +42,21 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Unique Morse Code Words  </t>
+  </si>
+  <si>
+    <t>Hamming Distance </t>
+  </si>
+  <si>
+    <t>Flipping an Image  </t>
+  </si>
+  <si>
+    <t>Projection Area of 3D Shapes </t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -65,12 +80,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -97,6 +124,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -433,7 +466,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -461,7 +494,7 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -472,29 +505,53 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="4">
+        <v>804</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="4">
+        <v>461</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="4">
+        <v>832</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="4">
+        <v>887</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
@@ -545,11 +602,15 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/jewels-and-stones"/>
     <hyperlink ref="B3" r:id="rId2" display="https://leetcode.com/problems/to-lower-case"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://leetcode.com/problems/unique-morse-code-words"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/hamming-distance"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://leetcode.com/problems/flipping-an-image"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://leetcode.com/problems/projection-area-of-3d-shapes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCodePractice/Docs/ProgressReport.xlsx
+++ b/LeetCodePractice/Docs/ProgressReport.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeetCode\LeetCodePractice\LeetCodePractice\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027" calcOnSave="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Jewels and Stones</t>
   </si>
@@ -57,6 +53,15 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Judge Route Circle </t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>Peak Index in a Mountain Array   </t>
   </si>
 </sst>
 </file>
@@ -465,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -554,19 +559,37 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="4">
+        <v>657</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="4">
+        <v>617</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="4">
+        <v>852</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
@@ -606,11 +629,14 @@
     <hyperlink ref="B5" r:id="rId4" display="https://leetcode.com/problems/hamming-distance"/>
     <hyperlink ref="B6" r:id="rId5" display="https://leetcode.com/problems/flipping-an-image"/>
     <hyperlink ref="B7" r:id="rId6" display="https://leetcode.com/problems/projection-area-of-3d-shapes"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://leetcode.com/problems/judge-route-circle"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://leetcode.com/problems/merge-two-binary-trees"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://leetcode.com/problems/peak-index-in-a-mountain-array"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>